--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB092.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB092.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A73E0-006E-4AA7-A761-823B7A2E0C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD18EBD-334F-47AF-B8D8-93C246A18B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -547,10 +547,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Y=是，N=否</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>預估應計土地增值稅</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -592,10 +588,6 @@
   </si>
   <si>
     <t>X(09)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位:平方公尺，填至小數點2位</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1346,6 +1338,15 @@
   </si>
   <si>
     <t xml:space="preserve">    DBMS_OUTPUT.PUT_LINE('UPDATE Work_B092 BdNo1 BdNo2');</t>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：平方公尺，填至小數點2位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2071,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2129,7 +2130,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -2221,7 +2222,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2246,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="29"/>
       <c r="J9" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2266,7 +2267,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>51</v>
@@ -2275,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2297,7 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>27</v>
@@ -2305,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2326,7 +2327,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>28</v>
@@ -2335,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2365,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2395,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2403,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>58</v>
@@ -2425,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2455,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2486,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2515,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2545,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>81</v>
@@ -2575,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2604,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2633,7 +2634,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2662,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2691,7 +2692,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2721,7 +2722,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2750,7 +2751,7 @@
         <v>17</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2758,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>99</v>
@@ -2770,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>100</v>
@@ -2779,7 +2780,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2787,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>101</v>
@@ -2799,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>102</v>
@@ -2808,7 +2809,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2828,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>28</v>
@@ -2837,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2845,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>105</v>
@@ -2857,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H30" s="28" t="s">
         <v>106</v>
@@ -2866,7 +2867,7 @@
         <v>21.1</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2874,7 +2875,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>107</v>
@@ -2886,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>106</v>
@@ -2895,7 +2896,7 @@
         <v>21.2</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2915,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>72</v>
@@ -2924,7 +2925,7 @@
         <v>22.1</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2944,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>110</v>
@@ -2953,7 +2954,7 @@
         <v>22.2</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2979,7 +2980,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -2999,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="H35" s="28" t="s">
         <v>100</v>
@@ -3008,7 +3009,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -3016,10 +3017,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>3</v>
@@ -3034,7 +3035,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3042,10 +3043,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>3</v>
@@ -3060,7 +3061,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3068,10 +3069,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -3086,7 +3087,7 @@
         <v>27</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3094,10 +3095,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -3106,13 +3107,13 @@
         <v>7</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="29">
         <v>28</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -3120,10 +3121,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>3</v>
@@ -3138,7 +3139,7 @@
         <v>29</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="69" x14ac:dyDescent="0.3">
@@ -3146,10 +3147,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>3</v>
@@ -3158,16 +3159,16 @@
         <v>9</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="29">
         <v>30</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3175,10 +3176,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>3</v>
@@ -3187,16 +3188,16 @@
         <v>10</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I42" s="29">
         <v>31</v>
       </c>
       <c r="J42" s="34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -3204,10 +3205,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -3222,7 +3223,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -3230,7 +3231,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>40</v>
@@ -3245,13 +3246,13 @@
         <v>40</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I44" s="29">
         <v>33</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3281,7 +3282,7 @@
         <v>34</v>
       </c>
       <c r="J45" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3543,7 +3544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2DDCAE-8B77-4D27-A108-5527065C8747}">
   <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
@@ -3555,892 +3556,892 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4465,27 +4466,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -4528,32 +4529,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -4561,147 +4562,147 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
